--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23956.96581593255</v>
+        <v>37683.32395335069</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-22876.85944685538</v>
       </c>
       <c r="E6" t="n">
-        <v>-99974.00321689005</v>
+        <v>-99974.00321689011</v>
       </c>
       <c r="F6" t="n">
         <v>33125.99678310995</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37683.32395335069</v>
+        <v>-87426.57484412592</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="D2" t="n">
         <v>64504.44331886782</v>
       </c>
       <c r="E2" t="n">
-        <v>68592.32888991815</v>
+        <v>68592.32888991814</v>
       </c>
       <c r="F2" t="n">
         <v>68592.32888991815</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-38027.53341689015</v>
       </c>
       <c r="E6" t="n">
-        <v>-99974.00321689011</v>
+        <v>-114784.020056004</v>
       </c>
       <c r="F6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="G6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="H6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="I6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="J6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="K6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="L6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="M6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="N6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="O6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
       <c r="P6" t="n">
-        <v>33125.99678310995</v>
+        <v>18315.97994399604</v>
       </c>
     </row>
   </sheetData>
